--- a/horarios de grupo.xlsx
+++ b/horarios de grupo.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alberto\Documents\GitHub\proyectoFinal1DAMAPO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C70AE356-7292-434C-9C2F-3469E605958D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2ECC361-CBC1-402B-8FA5-A0AC67902000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{209788A2-9784-4F62-BB75-7691B27A03FF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="14880" activeTab="1" xr2:uid="{209788A2-9784-4F62-BB75-7691B27A03FF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="ShiftPattern" sheetId="1" r:id="rId1"/>
+    <sheet name="ejermplo turnos" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="22">
   <si>
     <t>L</t>
   </si>
@@ -66,6 +67,39 @@
   </si>
   <si>
     <t>U</t>
+  </si>
+  <si>
+    <t>Hora</t>
+  </si>
+  <si>
+    <t>Previsión</t>
+  </si>
+  <si>
+    <t>Cajeros</t>
+  </si>
+  <si>
+    <t>Almacen</t>
+  </si>
+  <si>
+    <t>AttPublico</t>
+  </si>
+  <si>
+    <t>Requisitos</t>
+  </si>
+  <si>
+    <t>hora inicio</t>
+  </si>
+  <si>
+    <t>hora fin</t>
+  </si>
+  <si>
+    <t>empleado</t>
+  </si>
+  <si>
+    <t>Prevision</t>
+  </si>
+  <si>
+    <t>Turnos Caja</t>
   </si>
 </sst>
 </file>
@@ -89,7 +123,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -97,12 +131,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,116 +503,504 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15969CCE-FD0C-4D68-B5BB-080C6D4CBE67}">
-  <dimension ref="E13:L16"/>
+  <dimension ref="B2:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="13" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="F13" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="G13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" t="s">
-        <v>2</v>
-      </c>
-      <c r="I13" t="s">
-        <v>3</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="K13" t="s">
+      <c r="H2" t="s">
         <v>9</v>
       </c>
-      <c r="L13" t="s">
+      <c r="I2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="F14" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" t="s">
+      <c r="F3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" t="s">
+      <c r="G3" t="s">
         <v>0</v>
       </c>
-      <c r="K14" t="s">
+      <c r="H3" t="s">
         <v>0</v>
       </c>
-      <c r="L14" t="s">
+      <c r="I3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E15" t="s">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="F15" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="G15" t="s">
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="H15" t="s">
+      <c r="E4" t="s">
         <v>0</v>
       </c>
-      <c r="I15" t="s">
+      <c r="F4" t="s">
         <v>0</v>
       </c>
-      <c r="J15" t="s">
-        <v>1</v>
-      </c>
-      <c r="K15" t="s">
-        <v>1</v>
-      </c>
-      <c r="L15" t="s">
+      <c r="G4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E16" t="s">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="F16" t="s">
+      <c r="C5" t="s">
         <v>0</v>
       </c>
-      <c r="G16" t="s">
+      <c r="D5" t="s">
         <v>0</v>
       </c>
-      <c r="H16" t="s">
-        <v>1</v>
-      </c>
-      <c r="I16" t="s">
-        <v>1</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
         <v>8</v>
       </c>
-      <c r="K16" t="s">
+      <c r="H5" t="s">
         <v>8</v>
       </c>
-      <c r="L16" t="s">
+      <c r="I5" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A91C8F0C-C98F-4C6C-93F3-F80FA91A7D99}">
+  <dimension ref="B4:M26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C6" s="1">
+        <v>150</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C7" s="1">
+        <v>200</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1">
+        <v>200</v>
+      </c>
+      <c r="K7" s="1">
+        <v>2</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>250</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="J8" s="1">
+        <v>350</v>
+      </c>
+      <c r="K8" s="1">
+        <v>2</v>
+      </c>
+      <c r="L8" s="1">
+        <v>2</v>
+      </c>
+      <c r="M8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C9" s="1">
+        <v>600</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3</v>
+      </c>
+      <c r="J9" s="1">
+        <v>500</v>
+      </c>
+      <c r="K9" s="1">
+        <v>3</v>
+      </c>
+      <c r="L9" s="1">
+        <v>2</v>
+      </c>
+      <c r="M9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C10" s="1">
+        <v>250</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="J10" s="1">
+        <v>600</v>
+      </c>
+      <c r="K10" s="1">
+        <v>3</v>
+      </c>
+      <c r="L10" s="1">
+        <v>3</v>
+      </c>
+      <c r="M10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C11" s="1">
+        <v>200</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C12" s="1">
+        <v>300</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C13" s="1">
+        <v>400</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C14" s="1">
+        <v>600</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C15" s="1">
+        <v>250</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C16" s="1">
+        <v>150</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>10</v>
+      </c>
+      <c r="D22" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1">
+        <v>11</v>
+      </c>
+      <c r="D23" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1">
+        <v>13</v>
+      </c>
+      <c r="D24" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1">
+        <v>15</v>
+      </c>
+      <c r="D25" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
+        <v>5</v>
+      </c>
+      <c r="C26" s="1">
+        <v>17</v>
+      </c>
+      <c r="D26" s="1">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B4:C4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>